--- a/DotnetXlSheetImportTamer/wwwroot/Excel/ExcelTest.xlsx
+++ b/DotnetXlSheetImportTamer/wwwroot/Excel/ExcelTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Band</t>
   </si>
@@ -54,10 +54,28 @@
     <t>ContentSec250GBHDforESA C170,SMA M170WSA S170 REMANUFACTURED</t>
   </si>
   <si>
-    <t>CCS-HDD-600GB-RF</t>
-  </si>
-  <si>
     <t>ContentSec 600GB 12G SAS 10K RPM SFF HDD (4K) REMANUFACTURED</t>
+  </si>
+  <si>
+    <t>CCS-HDD-600GB-RsF</t>
+  </si>
+  <si>
+    <t>CCSss-HD-250GB-RF</t>
+  </si>
+  <si>
+    <t>CCSsss-HDD-600GB-RF</t>
+  </si>
+  <si>
+    <t>CCssssS-HD-250GB-RF</t>
+  </si>
+  <si>
+    <t>ssCCS-HDD-600GB-RF</t>
+  </si>
+  <si>
+    <t>CCS-HD-ss250GB-RF</t>
+  </si>
+  <si>
+    <t>CCsssssS-HDD-600GB-RF</t>
   </si>
 </sst>
 </file>
@@ -404,7 +422,7 @@
   <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,10 +490,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
       </c>
       <c r="F4" s="1">
         <v>632.21</v>
@@ -488,34 +506,160 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <v>270.95</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="H5" s="1">
+        <v>176.12</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <v>632.21</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="H6" s="1">
+        <v>410.94</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F7" s="1"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1">
+        <v>270.95</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="H7" s="1">
+        <v>176.12</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1">
+        <v>632.21</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="H8" s="1">
+        <v>410.94</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1">
+        <v>270.95</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="H9" s="1">
+        <v>176.12</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1">
+        <v>632.21</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="H10" s="1">
+        <v>410.94</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F11" s="1"/>
